--- a/Program-Info/temp.xlsx
+++ b/Program-Info/temp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1464" yWindow="1464" windowWidth="19134" windowHeight="9780" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,18 +16,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -39,7 +33,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -47,30 +41,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +427,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
